--- a/ava/Availability/Report/Cmd/cmd_data_substation_2025-02.xlsx
+++ b/ava/Availability/Report/Cmd/cmd_data_substation_2025-02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\scada\ava\Availability\Report\Cmd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML\scada\ava\Availability\Report\Cmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06639057-0A92-4EBA-A61F-0303D762C9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2864CC6A-6729-4102-A8DD-FC625D82B350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -555,13 +555,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="188" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -569,20 +569,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -629,11 +629,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,25 +941,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.25" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="16" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>43</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>49</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>51</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>52</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>54</v>
       </c>
